--- a/Fitness.xlsx
+++ b/Fitness.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\FITNESS DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataScientistAccompli\projets\divertissements\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA933C-6C03-42FA-BD24-50819726E3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBD03C-256D-4A73-93FC-61751BA2964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{C3DC8947-8663-41C9-9248-123E05F6B9AA}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{C3DC8947-8663-41C9-9248-123E05F6B9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="250">
   <si>
     <t>Jour 1</t>
   </si>
@@ -738,6 +727,57 @@
   </si>
   <si>
     <t>15h54</t>
+  </si>
+  <si>
+    <t>12h43</t>
+  </si>
+  <si>
+    <t>12h46</t>
+  </si>
+  <si>
+    <t>7h06</t>
+  </si>
+  <si>
+    <t>7h54</t>
+  </si>
+  <si>
+    <t>7h33</t>
+  </si>
+  <si>
+    <t>15h26</t>
+  </si>
+  <si>
+    <t>7h16</t>
+  </si>
+  <si>
+    <t>21h30</t>
+  </si>
+  <si>
+    <t>22h37</t>
+  </si>
+  <si>
+    <t>23h57</t>
+  </si>
+  <si>
+    <t>20h59</t>
+  </si>
+  <si>
+    <t>22h33</t>
+  </si>
+  <si>
+    <t>23h51</t>
+  </si>
+  <si>
+    <t>23h35</t>
+  </si>
+  <si>
+    <t>9h26</t>
+  </si>
+  <si>
+    <t>20h07</t>
+  </si>
+  <si>
+    <t>23h59</t>
   </si>
 </sst>
 </file>
@@ -797,8 +837,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,13 +1173,13 @@
   <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="73" max="73" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -1448,6 +1488,27 @@
       <c r="AO2" t="s">
         <v>232</v>
       </c>
+      <c r="AP2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>233</v>
+      </c>
       <c r="BT2">
         <v>1</v>
       </c>
@@ -1540,6 +1601,9 @@
       <c r="AL3" t="s">
         <v>229</v>
       </c>
+      <c r="AU3" t="s">
+        <v>154</v>
+      </c>
       <c r="BT3">
         <v>1</v>
       </c>
@@ -1632,6 +1696,15 @@
       <c r="AO4" t="s">
         <v>207</v>
       </c>
+      <c r="AR4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>246</v>
+      </c>
       <c r="BT4">
         <v>1</v>
       </c>
@@ -1696,6 +1769,12 @@
       <c r="J6" t="s">
         <v>137</v>
       </c>
+      <c r="AS6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>248</v>
+      </c>
       <c r="BT6">
         <v>1</v>
       </c>
@@ -1731,6 +1810,18 @@
       <c r="Q7" t="s">
         <v>161</v>
       </c>
+      <c r="AR7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>249</v>
+      </c>
       <c r="BT7">
         <v>1</v>
       </c>
@@ -1772,6 +1863,9 @@
       <c r="AK8" t="s">
         <v>227</v>
       </c>
+      <c r="AU8" t="s">
+        <v>247</v>
+      </c>
       <c r="BT8">
         <v>0</v>
       </c>
@@ -1815,6 +1909,12 @@
       </c>
       <c r="AF9" t="s">
         <v>211</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>129</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -1937,7 +2037,7 @@
       <selection activeCell="A20" sqref="A20:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
@@ -2009,11 +2109,11 @@
       </c>
       <c r="G4">
         <f>7-COUNTBLANK(Suivi!AK2:AQ2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f>7-COUNTBLANK(Suivi!AR2:AX2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <f>7-COUNTBLANK(Suivi!AY2:BE2)</f>
@@ -2058,7 +2158,7 @@
       </c>
       <c r="H5">
         <f>7-COUNTBLANK(Suivi!AR3:AX3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>7-COUNTBLANK(Suivi!AY3:BE3)</f>
@@ -2103,7 +2203,7 @@
       </c>
       <c r="H6">
         <f>7-COUNTBLANK(Suivi!AR4:AX4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <f>7-COUNTBLANK(Suivi!AY4:BE4)</f>
@@ -2193,7 +2293,7 @@
       </c>
       <c r="H8">
         <f>7-COUNTBLANK(Suivi!AR6:AX6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <f>7-COUNTBLANK(Suivi!AY6:BE6)</f>
@@ -2238,7 +2338,7 @@
       </c>
       <c r="H9">
         <f>7-COUNTBLANK(Suivi!AR7:AX7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <f>7-COUNTBLANK(Suivi!AY7:BE7)</f>
@@ -2283,7 +2383,7 @@
       </c>
       <c r="H10">
         <f>7-COUNTBLANK(Suivi!AR8:AX8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f>7-COUNTBLANK(Suivi!AY8:BE8)</f>
@@ -2328,7 +2428,7 @@
       </c>
       <c r="H11">
         <f>7-COUNTBLANK(Suivi!AR9:AX9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f>7-COUNTBLANK(Suivi!AY9:BE9)</f>
@@ -2506,7 +2606,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
@@ -2554,7 +2654,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
@@ -2602,7 +2702,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -2698,7 +2798,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
@@ -2746,7 +2846,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
@@ -2794,7 +2894,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
@@ -2842,7 +2942,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
@@ -2967,7 +3067,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
@@ -3093,7 +3193,7 @@
       </c>
       <c r="H5">
         <f>RANK('Point Hebdomadaire'!H5,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <f>RANK('Point Hebdomadaire'!I5,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3138,7 +3238,7 @@
       </c>
       <c r="H6">
         <f>RANK('Point Hebdomadaire'!H6,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <f>RANK('Point Hebdomadaire'!I6,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3183,7 +3283,7 @@
       </c>
       <c r="H7">
         <f>RANK('Point Hebdomadaire'!H7,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <f>RANK('Point Hebdomadaire'!I7,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3228,7 +3328,7 @@
       </c>
       <c r="H8">
         <f>RANK('Point Hebdomadaire'!H8,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f>RANK('Point Hebdomadaire'!I8,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3273,7 +3373,7 @@
       </c>
       <c r="H9">
         <f>RANK('Point Hebdomadaire'!H9,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f>RANK('Point Hebdomadaire'!I9,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3318,7 +3418,7 @@
       </c>
       <c r="H10">
         <f>RANK('Point Hebdomadaire'!H10,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <f>RANK('Point Hebdomadaire'!I10,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3363,7 +3463,7 @@
       </c>
       <c r="H11">
         <f>RANK('Point Hebdomadaire'!H11,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f>RANK('Point Hebdomadaire'!I11,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3408,7 +3508,7 @@
       </c>
       <c r="H12">
         <f>RANK('Point Hebdomadaire'!H12,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <f>RANK('Point Hebdomadaire'!I12,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3453,7 +3553,7 @@
       </c>
       <c r="H13">
         <f>RANK('Point Hebdomadaire'!H13,'Point Hebdomadaire'!H$4:H$13)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <f>RANK('Point Hebdomadaire'!I13,'Point Hebdomadaire'!I$4:I$13)</f>
@@ -3580,7 +3680,7 @@
       </c>
       <c r="H28">
         <f>RANK('Point Hebdomadaire'!I22,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I28">
         <f>RANK('Point Hebdomadaire'!J22,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3625,7 +3725,7 @@
       </c>
       <c r="H29">
         <f>RANK('Point Hebdomadaire'!I23,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <f>RANK('Point Hebdomadaire'!J23,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3670,7 +3770,7 @@
       </c>
       <c r="H30">
         <f>RANK('Point Hebdomadaire'!I24,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I30">
         <f>RANK('Point Hebdomadaire'!J24,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3715,7 +3815,7 @@
       </c>
       <c r="H31">
         <f>RANK('Point Hebdomadaire'!I25,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f>RANK('Point Hebdomadaire'!J25,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3760,7 +3860,7 @@
       </c>
       <c r="H32">
         <f>RANK('Point Hebdomadaire'!I26,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <f>RANK('Point Hebdomadaire'!J26,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3805,7 +3905,7 @@
       </c>
       <c r="H33">
         <f>RANK('Point Hebdomadaire'!I27,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I33">
         <f>RANK('Point Hebdomadaire'!J27,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3895,7 +3995,7 @@
       </c>
       <c r="H35">
         <f>RANK('Point Hebdomadaire'!I29,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <f>RANK('Point Hebdomadaire'!J29,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3924,7 +4024,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1796875" customWidth="1"/>
   </cols>

--- a/Fitness.xlsx
+++ b/Fitness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataScientistAccompli\projets\divertissements\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBD03C-256D-4A73-93FC-61751BA2964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8171A-A708-4309-99E3-BC4E8CCF30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{C3DC8947-8663-41C9-9248-123E05F6B9AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{C3DC8947-8663-41C9-9248-123E05F6B9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="271">
   <si>
     <t>Jour 1</t>
   </si>
@@ -738,9 +738,6 @@
     <t>7h06</t>
   </si>
   <si>
-    <t>7h54</t>
-  </si>
-  <si>
     <t>7h33</t>
   </si>
   <si>
@@ -750,34 +747,100 @@
     <t>7h16</t>
   </si>
   <si>
-    <t>21h30</t>
-  </si>
-  <si>
-    <t>22h37</t>
-  </si>
-  <si>
     <t>23h57</t>
   </si>
   <si>
-    <t>20h59</t>
+    <t>15h22</t>
+  </si>
+  <si>
+    <t>12h51</t>
+  </si>
+  <si>
+    <t>11h18</t>
+  </si>
+  <si>
+    <t>19h27</t>
+  </si>
+  <si>
+    <t>10h37</t>
+  </si>
+  <si>
+    <t>20h56</t>
+  </si>
+  <si>
+    <t>8h00</t>
+  </si>
+  <si>
+    <t>22h50</t>
+  </si>
+  <si>
+    <t>17h58</t>
+  </si>
+  <si>
+    <t>22h27</t>
+  </si>
+  <si>
+    <t>21h28</t>
+  </si>
+  <si>
+    <t>19h50</t>
+  </si>
+  <si>
+    <t>7h52</t>
+  </si>
+  <si>
+    <t>21h35</t>
+  </si>
+  <si>
+    <t>18h02</t>
+  </si>
+  <si>
+    <t>18h39</t>
+  </si>
+  <si>
+    <t>22h44</t>
   </si>
   <si>
     <t>22h33</t>
   </si>
   <si>
-    <t>23h51</t>
-  </si>
-  <si>
-    <t>23h35</t>
-  </si>
-  <si>
-    <t>9h26</t>
-  </si>
-  <si>
-    <t>20h07</t>
-  </si>
-  <si>
-    <t>23h59</t>
+    <t>7h02</t>
+  </si>
+  <si>
+    <t>13h15</t>
+  </si>
+  <si>
+    <t>22h51</t>
+  </si>
+  <si>
+    <t>12h07</t>
+  </si>
+  <si>
+    <t>18h32</t>
+  </si>
+  <si>
+    <t>10h19</t>
+  </si>
+  <si>
+    <t>18h36</t>
+  </si>
+  <si>
+    <t>21h21</t>
+  </si>
+  <si>
+    <t>22h39</t>
+  </si>
+  <si>
+    <t>11h47</t>
+  </si>
+  <si>
+    <t>16h50</t>
+  </si>
+  <si>
+    <t>13h42</t>
+  </si>
+  <si>
+    <t>18h47</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1236,10 @@
   <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="bottomRight" activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,16 +1552,16 @@
         <v>232</v>
       </c>
       <c r="AP2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AQ2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AR2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AS2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="AT2" t="s">
         <v>235</v>
@@ -1508,6 +1571,33 @@
       </c>
       <c r="AV2" t="s">
         <v>233</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>269</v>
       </c>
       <c r="BT2">
         <v>1</v>
@@ -1602,7 +1692,16 @@
         <v>229</v>
       </c>
       <c r="AU3" t="s">
-        <v>154</v>
+        <v>215</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>270</v>
       </c>
       <c r="BT3">
         <v>1</v>
@@ -1696,14 +1795,17 @@
       <c r="AO4" t="s">
         <v>207</v>
       </c>
+      <c r="AP4" t="s">
+        <v>255</v>
+      </c>
       <c r="AR4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AS4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BT4">
         <v>1</v>
@@ -1770,10 +1872,10 @@
         <v>137</v>
       </c>
       <c r="AS6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AV6" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="BT6">
         <v>1</v>
@@ -1811,16 +1913,34 @@
         <v>161</v>
       </c>
       <c r="AR7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AS7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW7" t="s">
         <v>245</v>
       </c>
-      <c r="AT7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>249</v>
+      <c r="AZ7" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>268</v>
       </c>
       <c r="BT7">
         <v>1</v>
@@ -1864,7 +1984,13 @@
         <v>227</v>
       </c>
       <c r="AU8" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>258</v>
       </c>
       <c r="BT8">
         <v>0</v>
@@ -1910,11 +2036,23 @@
       <c r="AF9" t="s">
         <v>211</v>
       </c>
+      <c r="AO9" t="s">
+        <v>256</v>
+      </c>
       <c r="AR9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AV9" t="s">
         <v>129</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>265</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -2113,11 +2251,11 @@
       </c>
       <c r="H4">
         <f>7-COUNTBLANK(Suivi!AR2:AX2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <f>7-COUNTBLANK(Suivi!AY2:BE2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <f>7-COUNTBLANK(Suivi!BF2:BL2)</f>
@@ -2162,7 +2300,7 @@
       </c>
       <c r="I5">
         <f>7-COUNTBLANK(Suivi!AY3:BE3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>7-COUNTBLANK(Suivi!BF3:BL3)</f>
@@ -2199,7 +2337,7 @@
       </c>
       <c r="G6">
         <f>7-COUNTBLANK(Suivi!AK4:AQ4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f>7-COUNTBLANK(Suivi!AR4:AX4)</f>
@@ -2338,11 +2476,11 @@
       </c>
       <c r="H9">
         <f>7-COUNTBLANK(Suivi!AR7:AX7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f>7-COUNTBLANK(Suivi!AY7:BE7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f>7-COUNTBLANK(Suivi!BF7:BL7)</f>
@@ -2387,7 +2525,7 @@
       </c>
       <c r="I10">
         <f>7-COUNTBLANK(Suivi!AY8:BE8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <f>7-COUNTBLANK(Suivi!BF8:BL8)</f>
@@ -2424,7 +2562,7 @@
       </c>
       <c r="G11">
         <f>7-COUNTBLANK(Suivi!AK9:AQ9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f>7-COUNTBLANK(Suivi!AR9:AX9)</f>
@@ -2432,7 +2570,7 @@
       </c>
       <c r="I11">
         <f>7-COUNTBLANK(Suivi!AY9:BE9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>7-COUNTBLANK(Suivi!BF9:BL9)</f>
@@ -2610,7 +2748,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
@@ -2658,7 +2796,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
@@ -2698,7 +2836,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
@@ -2846,11 +2984,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
@@ -2898,7 +3036,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
@@ -2938,7 +3076,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I28">
         <f t="shared" si="8"/>
@@ -2946,7 +3084,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K28">
         <f t="shared" si="8"/>
@@ -3197,7 +3335,7 @@
       </c>
       <c r="I5">
         <f>RANK('Point Hebdomadaire'!I5,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>RANK('Point Hebdomadaire'!J5,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3242,7 +3380,7 @@
       </c>
       <c r="I6">
         <f>RANK('Point Hebdomadaire'!I6,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f>RANK('Point Hebdomadaire'!J6,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3279,7 +3417,7 @@
       </c>
       <c r="G7">
         <f>RANK('Point Hebdomadaire'!G7,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <f>RANK('Point Hebdomadaire'!H7,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3287,7 +3425,7 @@
       </c>
       <c r="I7">
         <f>RANK('Point Hebdomadaire'!I7,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <f>RANK('Point Hebdomadaire'!J7,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3324,7 +3462,7 @@
       </c>
       <c r="G8">
         <f>RANK('Point Hebdomadaire'!G8,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <f>RANK('Point Hebdomadaire'!H8,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3332,7 +3470,7 @@
       </c>
       <c r="I8">
         <f>RANK('Point Hebdomadaire'!I8,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f>RANK('Point Hebdomadaire'!J8,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3369,7 +3507,7 @@
       </c>
       <c r="G9">
         <f>RANK('Point Hebdomadaire'!G9,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <f>RANK('Point Hebdomadaire'!H9,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3377,7 +3515,7 @@
       </c>
       <c r="I9">
         <f>RANK('Point Hebdomadaire'!I9,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f>RANK('Point Hebdomadaire'!J9,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3422,7 +3560,7 @@
       </c>
       <c r="I10">
         <f>RANK('Point Hebdomadaire'!I10,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <f>RANK('Point Hebdomadaire'!J10,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3459,7 +3597,7 @@
       </c>
       <c r="G11">
         <f>RANK('Point Hebdomadaire'!G11,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <f>RANK('Point Hebdomadaire'!H11,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3467,7 +3605,7 @@
       </c>
       <c r="I11">
         <f>RANK('Point Hebdomadaire'!I11,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>RANK('Point Hebdomadaire'!J11,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3504,7 +3642,7 @@
       </c>
       <c r="G12">
         <f>RANK('Point Hebdomadaire'!G12,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <f>RANK('Point Hebdomadaire'!H12,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3512,7 +3650,7 @@
       </c>
       <c r="I12">
         <f>RANK('Point Hebdomadaire'!I12,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <f>RANK('Point Hebdomadaire'!J12,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3549,7 +3687,7 @@
       </c>
       <c r="G13">
         <f>RANK('Point Hebdomadaire'!G13,'Point Hebdomadaire'!G$4:G$13)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f>RANK('Point Hebdomadaire'!H13,'Point Hebdomadaire'!H$4:H$13)</f>
@@ -3557,7 +3695,7 @@
       </c>
       <c r="I13">
         <f>RANK('Point Hebdomadaire'!I13,'Point Hebdomadaire'!I$4:I$13)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <f>RANK('Point Hebdomadaire'!J13,'Point Hebdomadaire'!J$4:J$13)</f>
@@ -3676,7 +3814,7 @@
       </c>
       <c r="G28">
         <f>RANK('Point Hebdomadaire'!H22,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <f>RANK('Point Hebdomadaire'!I22,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3684,7 +3822,7 @@
       </c>
       <c r="I28">
         <f>RANK('Point Hebdomadaire'!J22,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <f>RANK('Point Hebdomadaire'!K22,'Point Hebdomadaire'!K$21:K$29)</f>
@@ -3729,7 +3867,7 @@
       </c>
       <c r="I29">
         <f>RANK('Point Hebdomadaire'!J23,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <f>RANK('Point Hebdomadaire'!K23,'Point Hebdomadaire'!K$21:K$29)</f>
@@ -3766,7 +3904,7 @@
       </c>
       <c r="G30">
         <f>RANK('Point Hebdomadaire'!H24,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <f>RANK('Point Hebdomadaire'!I24,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3774,7 +3912,7 @@
       </c>
       <c r="I30">
         <f>RANK('Point Hebdomadaire'!J24,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30">
         <f>RANK('Point Hebdomadaire'!K24,'Point Hebdomadaire'!K$21:K$29)</f>
@@ -3811,7 +3949,7 @@
       </c>
       <c r="G31">
         <f>RANK('Point Hebdomadaire'!H25,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <f>RANK('Point Hebdomadaire'!I25,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3819,7 +3957,7 @@
       </c>
       <c r="I31">
         <f>RANK('Point Hebdomadaire'!J25,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <f>RANK('Point Hebdomadaire'!K25,'Point Hebdomadaire'!K$21:K$29)</f>
@@ -3856,11 +3994,11 @@
       </c>
       <c r="G32">
         <f>RANK('Point Hebdomadaire'!H26,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <f>RANK('Point Hebdomadaire'!I26,'Point Hebdomadaire'!I$21:I$29)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f>RANK('Point Hebdomadaire'!J26,'Point Hebdomadaire'!J$21:J$29)</f>
@@ -3901,7 +4039,7 @@
       </c>
       <c r="G33">
         <f>RANK('Point Hebdomadaire'!H27,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <f>RANK('Point Hebdomadaire'!I27,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3909,7 +4047,7 @@
       </c>
       <c r="I33">
         <f>RANK('Point Hebdomadaire'!J27,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <f>RANK('Point Hebdomadaire'!K27,'Point Hebdomadaire'!K$21:K$29)</f>
@@ -3946,7 +4084,7 @@
       </c>
       <c r="G34">
         <f>RANK('Point Hebdomadaire'!H28,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <f>RANK('Point Hebdomadaire'!I28,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3991,7 +4129,7 @@
       </c>
       <c r="G35">
         <f>RANK('Point Hebdomadaire'!H29,'Point Hebdomadaire'!H$21:H$29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <f>RANK('Point Hebdomadaire'!I29,'Point Hebdomadaire'!I$21:I$29)</f>
@@ -3999,7 +4137,7 @@
       </c>
       <c r="I35">
         <f>RANK('Point Hebdomadaire'!J29,'Point Hebdomadaire'!J$21:J$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35">
         <f>RANK('Point Hebdomadaire'!K29,'Point Hebdomadaire'!K$21:K$29)</f>

--- a/Fitness.xlsx
+++ b/Fitness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataScientistAccompli\projets\divertissements\fitness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8171A-A708-4309-99E3-BC4E8CCF30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12731532-292D-4F77-BDF3-AB2BF649F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{C3DC8947-8663-41C9-9248-123E05F6B9AA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="292">
   <si>
     <t>Jour 1</t>
   </si>
@@ -841,6 +841,69 @@
   </si>
   <si>
     <t>18h47</t>
+  </si>
+  <si>
+    <t>17h31</t>
+  </si>
+  <si>
+    <t>16h08</t>
+  </si>
+  <si>
+    <t>21h07</t>
+  </si>
+  <si>
+    <t>18h26</t>
+  </si>
+  <si>
+    <t>19h04</t>
+  </si>
+  <si>
+    <t>8h15</t>
+  </si>
+  <si>
+    <t>7h40</t>
+  </si>
+  <si>
+    <t>20h42</t>
+  </si>
+  <si>
+    <t>21h52</t>
+  </si>
+  <si>
+    <t>9h36</t>
+  </si>
+  <si>
+    <t>7h09</t>
+  </si>
+  <si>
+    <t>11h36</t>
+  </si>
+  <si>
+    <t>10h58</t>
+  </si>
+  <si>
+    <t>22h00</t>
+  </si>
+  <si>
+    <t>7h14</t>
+  </si>
+  <si>
+    <t>21h13</t>
+  </si>
+  <si>
+    <t>23h11</t>
+  </si>
+  <si>
+    <t>17h30</t>
+  </si>
+  <si>
+    <t>6h40</t>
+  </si>
+  <si>
+    <t>9h22</t>
+  </si>
+  <si>
+    <t>20h44</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1299,10 @@
   <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT13" sqref="AT13"/>
+      <selection pane="bottomRight" activeCell="BJ18" sqref="BJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1599,6 +1662,48 @@
       <c r="BE2" t="s">
         <v>269</v>
       </c>
+      <c r="BF2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>272</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>276</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>285</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>274</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>290</v>
+      </c>
       <c r="BT2">
         <v>1</v>
       </c>
@@ -1703,6 +1808,21 @@
       <c r="BE3" t="s">
         <v>270</v>
       </c>
+      <c r="BG3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>286</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>291</v>
+      </c>
       <c r="BT3">
         <v>1</v>
       </c>
@@ -1851,6 +1971,21 @@
       <c r="AD5" t="s">
         <v>202</v>
       </c>
+      <c r="BF5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>135</v>
+      </c>
       <c r="BT5">
         <v>1</v>
       </c>
@@ -1942,6 +2077,15 @@
       <c r="BD7" t="s">
         <v>268</v>
       </c>
+      <c r="BI7" t="s">
+        <v>279</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>287</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>135</v>
+      </c>
       <c r="BT7">
         <v>1</v>
       </c>
@@ -1992,6 +2136,9 @@
       <c r="BA8" t="s">
         <v>258</v>
       </c>
+      <c r="BI8" t="s">
+        <v>277</v>
+      </c>
       <c r="BT8">
         <v>0</v>
       </c>
@@ -2053,6 +2200,12 @@
       </c>
       <c r="BC9" t="s">
         <v>265</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>148</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -2259,11 +2412,11 @@
       </c>
       <c r="J4">
         <f>7-COUNTBLANK(Suivi!BF2:BL2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <f>7-COUNTBLANK(Suivi!BM2:BS2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2304,11 +2457,11 @@
       </c>
       <c r="J5">
         <f>7-COUNTBLANK(Suivi!BF3:BL3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>7-COUNTBLANK(Suivi!BM3:BS3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2394,7 +2547,7 @@
       </c>
       <c r="J7">
         <f>7-COUNTBLANK(Suivi!BF5:BL5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <f>7-COUNTBLANK(Suivi!BM5:BS5)</f>
@@ -2484,11 +2637,11 @@
       </c>
       <c r="J9">
         <f>7-COUNTBLANK(Suivi!BF7:BL7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f>7-COUNTBLANK(Suivi!BM7:BS7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2529,7 +2682,7 @@
       </c>
       <c r="J10">
         <f>7-COUNTBLANK(Suivi!BF8:BL8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f>7-COUNTBLANK(Suivi!BM8:BS8)</f>
@@ -2574,11 +2727,11 @@
       </c>
       <c r="J11">
         <f>7-COUNTBLANK(Suivi!BF9:BL9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f>7-COUNTBLANK(Suivi!BM9:BS9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2752,11 +2905,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2800,11 +2953,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2896,7 +3049,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
@@ -2992,11 +3145,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -3040,7 +3193,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
@@ -3088,11 +3241,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -3339,11 +3492,11 @@
       </c>
       <c r="J5">
         <f>RANK('Point Hebdomadaire'!J5,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <f>RANK('Point Hebdomadaire'!K5,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3384,11 +3537,11 @@
       </c>
       <c r="J6">
         <f>RANK('Point Hebdomadaire'!J6,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <f>RANK('Point Hebdomadaire'!K6,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3429,11 +3582,11 @@
       </c>
       <c r="J7">
         <f>RANK('Point Hebdomadaire'!J7,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <f>RANK('Point Hebdomadaire'!K7,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3474,11 +3627,11 @@
       </c>
       <c r="J8">
         <f>RANK('Point Hebdomadaire'!J8,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <f>RANK('Point Hebdomadaire'!K8,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3519,11 +3672,11 @@
       </c>
       <c r="J9">
         <f>RANK('Point Hebdomadaire'!J9,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <f>RANK('Point Hebdomadaire'!K9,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3564,11 +3717,11 @@
       </c>
       <c r="J10">
         <f>RANK('Point Hebdomadaire'!J10,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <f>RANK('Point Hebdomadaire'!K10,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3609,11 +3762,11 @@
       </c>
       <c r="J11">
         <f>RANK('Point Hebdomadaire'!J11,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <f>RANK('Point Hebdomadaire'!K11,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -3654,11 +3807,11 @@
       </c>
       <c r="J12">
         <f>RANK('Point Hebdomadaire'!J12,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <f>RANK('Point Hebdomadaire'!K12,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -3699,11 +3852,11 @@
       </c>
       <c r="J13">
         <f>RANK('Point Hebdomadaire'!J13,'Point Hebdomadaire'!J$4:J$13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <f>RANK('Point Hebdomadaire'!K13,'Point Hebdomadaire'!K$4:K$13)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -3826,11 +3979,11 @@
       </c>
       <c r="J28">
         <f>RANK('Point Hebdomadaire'!K22,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28">
         <f>RANK('Point Hebdomadaire'!L22,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -3871,11 +4024,11 @@
       </c>
       <c r="J29">
         <f>RANK('Point Hebdomadaire'!K23,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <f>RANK('Point Hebdomadaire'!L23,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -3916,11 +4069,11 @@
       </c>
       <c r="J30">
         <f>RANK('Point Hebdomadaire'!K24,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30">
         <f>RANK('Point Hebdomadaire'!L24,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -3961,11 +4114,11 @@
       </c>
       <c r="J31">
         <f>RANK('Point Hebdomadaire'!K25,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K31">
         <f>RANK('Point Hebdomadaire'!L25,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -4006,11 +4159,11 @@
       </c>
       <c r="J32">
         <f>RANK('Point Hebdomadaire'!K26,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <f>RANK('Point Hebdomadaire'!L26,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -4051,11 +4204,11 @@
       </c>
       <c r="J33">
         <f>RANK('Point Hebdomadaire'!K27,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <f>RANK('Point Hebdomadaire'!L27,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -4096,11 +4249,11 @@
       </c>
       <c r="J34">
         <f>RANK('Point Hebdomadaire'!K28,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <f>RANK('Point Hebdomadaire'!L28,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -4141,11 +4294,11 @@
       </c>
       <c r="J35">
         <f>RANK('Point Hebdomadaire'!K29,'Point Hebdomadaire'!K$21:K$29)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K35">
         <f>RANK('Point Hebdomadaire'!L29,'Point Hebdomadaire'!L$21:L$29)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
